--- a/api/2/clv3/xlsx/pt/OrganisationRegistrationAgency.xlsx
+++ b/api/2/clv3/xlsx/pt/OrganisationRegistrationAgency.xlsx
@@ -13990,7 +13990,7 @@
     <hyperlink ref="C389" r:id="rId385"/>
     <hyperlink ref="C390" r:id="rId386"/>
     <hyperlink ref="C391" r:id="rId387"/>
-    <hyperlink ref="C392" r:id="rId388" location=""/>
+    <hyperlink ref="C392" r:id="rId388"/>
     <hyperlink ref="C393" r:id="rId389"/>
     <hyperlink ref="C394" r:id="rId390"/>
     <hyperlink ref="C395" r:id="rId391"/>
